--- a/resources/settings/work_blocks.xlsx
+++ b/resources/settings/work_blocks.xlsx
@@ -32,7 +32,7 @@
     <author>AI</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,29 +51,6 @@
           </rPr>
           <t xml:space="preserve">
 Через запятую с пробелами, в одинарных кавычках URL или локальные адреса для открытия. Порядок не важен, можно хоть в перемешку</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t>AI:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t xml:space="preserve">
-process_name | dir_name
-имя процессов в одинарных кавычках, через запятую с пробелами, также как и имена директорий для закрытия. При этом два типа отделяются друг от друга вертикальной черотй</t>
         </r>
       </text>
     </comment>
@@ -95,11 +72,34 @@
             <charset val="0"/>
           </rPr>
           <t xml:space="preserve">
-аналогично close</t>
+process_name | dir_name
+имя процессов в одинарных кавычках, через запятую с пробелами, также как и имена директорий для закрытия. При этом два типа отделяются друг от друга вертикальной черотй</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0">
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>AI:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+аналогично close</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0">
+    <comment ref="B5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -189,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="C6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0">
+    <comment ref="D6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="E6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -274,7 +274,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>WB Group</t>
+  </si>
   <si>
     <t>Work block Title</t>
   </si>
@@ -969,12 +972,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1313,24 +1319,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="47.2222222222222" style="3" customWidth="1"/>
-    <col min="2" max="4" width="52.5555555555556" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9" style="4"/>
+    <col min="1" max="1" width="10.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="47.2222222222222" style="3" customWidth="1"/>
+    <col min="3" max="5" width="52.5555555555556" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1340,73 +1347,76 @@
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
-      <c r="A2" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="F1" s="9"/>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:5">
-      <c r="A3" s="9" t="s">
+    <row r="2" s="2" customFormat="1" spans="2:6">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:5">
-      <c r="A4" s="9" t="s">
+    <row r="3" s="2" customFormat="1" spans="2:6">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:5">
-      <c r="A5" s="9" t="s">
+    <row r="4" s="2" customFormat="1" spans="2:6">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="9" t="s">
+    <row r="5" s="2" customFormat="1" spans="2:6">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
+    <row r="7" spans="2:2">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" s="3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/resources/settings/work_blocks.xlsx
+++ b/resources/settings/work_blocks.xlsx
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>WB Group</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>Fun</t>
+  </si>
+  <si>
+    <t>Taskmgr.exe, mmc.exe, SystemSettings.exe | Пользователи, Локальный диск (C:), Свойства: abc, Разрешения для группы</t>
   </si>
   <si>
     <t>Work</t>
@@ -972,7 +975,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -995,6 +998,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1322,11 +1328,11 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1373,18 +1379,20 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="2:6">
+    <row r="4" s="2" customFormat="1" ht="28.8" spans="2:6">
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
     </row>
     <row r="5" s="2" customFormat="1" spans="2:6">
       <c r="B5" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1393,7 +1401,7 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1401,22 +1409,22 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/resources/settings/work_blocks.xlsx
+++ b/resources/settings/work_blocks.xlsx
@@ -300,7 +300,7 @@
     <t>Fun</t>
   </si>
   <si>
-    <t>Taskmgr.exe, mmc.exe, SystemSettings.exe | Пользователи, Локальный диск (C:), Свойства: abc, Разрешения для группы</t>
+    <t>Taskmgr.exe, mmc.exe, SystemSettings.exe | *, , Медиаплеер, Медиаплеер, , Калькулятор, Калькулятор, , , , , NVIDIA GeForce Overlay, Program Manager</t>
   </si>
   <si>
     <t>Work</t>
@@ -1332,7 +1332,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6:D7"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1379,7 +1379,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="28.8" spans="2:6">
+    <row r="4" s="2" customFormat="1" ht="43.2" spans="2:6">
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>

--- a/resources/settings/work_blocks.xlsx
+++ b/resources/settings/work_blocks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264"/>
+    <workbookView windowWidth="21000" windowHeight="9804"/>
   </bookViews>
   <sheets>
     <sheet name="one" sheetId="1" r:id="rId1"/>
@@ -99,182 +99,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t>AI:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t xml:space="preserve">
-система работает, но вообще ничего не делает - просто ждет команды на запуск</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t>AI:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t xml:space="preserve">
--- развлечения заблокированы
--- больше ограничений нет, в том числе разрешен полный доступ к настройкам и к папке с orgApp</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t>AI:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t xml:space="preserve">
--- Доступны игры и другие развл.
--- Дотсуп к настройкам и к папке orgApp запрещен</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t>AI:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t xml:space="preserve">
--- Запрещены развлечения и настройки</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t>AI:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t xml:space="preserve">
--- Таблица с режимами повторения
--- PDF Книгу с конспектами
--- Папку и файлы с конспектами на Google Docs
--- Блокнот
--- VS Code директория для черновиков
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t>AI:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t xml:space="preserve">
--- Все, что было открыто прошлым РБ</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t>AI:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t xml:space="preserve">
--- Все браузеры, кроме Crome
--- Игры
--- dir z
--- Диспетчер задач
--- Настройка времени
--- Папка с файлами orgApp
--- URL:
--- Ютуб, кроме музыки
--- Торенты
--- chrome не более 20% времени</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>WB Group</t>
   </si>
@@ -291,34 +121,28 @@
     <t>Blocked: process_name | dir_name</t>
   </si>
   <si>
-    <t>orgApp sleep</t>
+    <t>test 1</t>
   </si>
   <si>
-    <t>orgApp All development</t>
+    <t>C:\Users\AI\Documents\Summary\1 Python Кольцов Полное руководство.pdf, C:\Windows\System32\notepad.exe</t>
   </si>
   <si>
-    <t>Fun</t>
+    <t>C:\Program Files\Google\Chrome\Application\chrome.exe | тест</t>
   </si>
   <si>
-    <t>Taskmgr.exe, mmc.exe, SystemSettings.exe | *, , Медиаплеер, Медиаплеер, , Калькулятор, Калькулятор, , , , , NVIDIA GeForce Overlay, Program Manager</t>
+    <t>chrome.exe | тест</t>
   </si>
   <si>
-    <t>Work</t>
+    <t>test 2</t>
   </si>
   <si>
-    <t>Py Repeat</t>
+    <t>C:\Program Files\Google\Chrome\Application\chrome.exe</t>
   </si>
   <si>
-    <t>Py Googling &amp; summary</t>
+    <t>C:\Windows\System32\notepad.exe | тест</t>
   </si>
   <si>
-    <t>Py Theme practic &amp; experiments</t>
-  </si>
-  <si>
-    <t>Python, Leetcode or codewars</t>
-  </si>
-  <si>
-    <t>Python, Pet-project</t>
+    <t>notepad.exe | тест</t>
   </si>
 </sst>
 </file>
@@ -975,10 +799,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -994,13 +817,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1325,106 +1141,68 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="47.2222222222222" style="3" customWidth="1"/>
-    <col min="3" max="5" width="52.5555555555556" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="4"/>
+    <col min="2" max="2" width="47.2222222222222" style="2" customWidth="1"/>
+    <col min="3" max="5" width="52.5555555555556" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="8"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="2:6">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:5">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="2:6">
-      <c r="B3" s="10" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="43.2" spans="2:6">
-      <c r="B4" s="10" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="12" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="2:6">
-      <c r="B5" s="10" t="s">
+    <row r="3" spans="2:5">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="10" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/resources/settings/work_blocks.xlsx
+++ b/resources/settings/work_blocks.xlsx
@@ -1,335 +1,195 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="9804"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22920" windowHeight="7667" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="one" sheetId="1" r:id="rId1"/>
+    <sheet name="one" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>AI</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t>AI:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t xml:space="preserve">
-Через запятую с пробелами, в одинарных кавычках URL или локальные адреса для открытия. Порядок не важен, можно хоть в перемешку</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t>AI:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t xml:space="preserve">
-process_name | dir_name
-имя процессов в одинарных кавычках, через запятую с пробелами, также как и имена директорий для закрытия. При этом два типа отделяются друг от друга вертикальной черотй</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t>AI:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t xml:space="preserve">
-аналогично close</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>WB Group</t>
-  </si>
-  <si>
-    <t>Work block Title</t>
-  </si>
-  <si>
-    <t>Open: path or url</t>
-  </si>
-  <si>
-    <t>Close: process_name | dir_name</t>
-  </si>
-  <si>
-    <t>Blocked: process_name | dir_name</t>
-  </si>
-  <si>
-    <t>test 1</t>
-  </si>
-  <si>
-    <t>C:\Users\AI\Documents\Summary\1 Python Кольцов Полное руководство.pdf, C:\Windows\System32\notepad.exe</t>
-  </si>
-  <si>
-    <t>C:\Program Files\Google\Chrome\Application\chrome.exe | тест</t>
-  </si>
-  <si>
-    <t>chrome.exe | тест</t>
-  </si>
-  <si>
-    <t>test 2</t>
-  </si>
-  <si>
-    <t>C:\Program Files\Google\Chrome\Application\chrome.exe</t>
-  </si>
-  <si>
-    <t>C:\Windows\System32\notepad.exe | тест</t>
-  </si>
-  <si>
-    <t>notepad.exe | тест</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
+  <fonts count="22">
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="SimSun"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -654,169 +514,169 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -871,16 +731,103 @@
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <mruColors>
-      <color rgb="009A50EC"/>
-    </mruColors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>AI</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>AI:
+Через запятую с пробелами, в одинарных кавычках URL или локальные адреса для открытия. Порядок не важен, можно хоть в перемешку</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>AI:
+process_name | dir_name
+имя процессов в одинарных кавычках, через запятую с пробелами, также как и имена директорий для закрытия. При этом два типа отделяются друг от друга вертикальной черотй</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>AI:
+аналогично close</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1139,75 +1086,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="10.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="47.2222222222222" style="2" customWidth="1"/>
-    <col min="3" max="5" width="52.5555555555556" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3"/>
+    <col width="10.4444444444444" customWidth="1" min="1" max="1"/>
+    <col width="47.2222222222222" customWidth="1" style="2" min="2" max="2"/>
+    <col width="52.5555555555556" customWidth="1" style="3" min="3" max="5"/>
+    <col width="9" customWidth="1" style="3" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8"/>
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>WB Group</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Work block Title</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Open: path or url</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Close: process_name | dir_name</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>Blocked: process_name | dir_name</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="n"/>
     </row>
-    <row r="2" spans="2:5">
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>test 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>C:\Users\AI\Documents\Summary\1 Python Кольцов Полное руководство.pdf, C:\Windows\System32\notepad.exe</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C:\Program Files\Google\Chrome\Application\chrome.exe | тест</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>chrome.exe | тест</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>test 2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>C:\Program Files\Google\Chrome\Application\chrome.exe</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C:\Windows\System32\notepad.exe | тест</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>notepad.exe | тест</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
--- a/resources/settings/work_blocks.xlsx
+++ b/resources/settings/work_blocks.xlsx
@@ -1094,7 +1094,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1136,20 +1136,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>test 1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>C:\Users\AI\Documents\Summary\1 Python Кольцов Полное руководство.pdf, C:\Windows\System32\notepad.exe</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>C:\Program Files\Google\Chrome\Application\chrome.exe | тест</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>chrome.exe | тест</t>
         </is>
@@ -1158,20 +1163,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>test 2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>C:\Program Files\Google\Chrome\Application\chrome.exe</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>C:\Windows\System32\notepad.exe | тест</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>notepad.exe | тест</t>
         </is>

--- a/resources/settings/work_blocks.xlsx
+++ b/resources/settings/work_blocks.xlsx
@@ -1,195 +1,296 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22920" windowHeight="7667" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="22920" windowHeight="7667"/>
   </bookViews>
   <sheets>
-    <sheet name="one" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="one" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>AI</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>AI:
+Через запятую с пробелами, в одинарных кавычках URL или локальные адреса для открытия. Порядок не важен, можно хоть в перемешку</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>AI:
+process_name | dir_name
+имя процессов в одинарных кавычках, через запятую с пробелами, также как и имена директорий для закрытия. При этом два типа отделяются друг от друга вертикальной черотй</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>AI:
+аналогично close</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+  <si>
+    <t>WB Group</t>
+  </si>
+  <si>
+    <t>Work block Title</t>
+  </si>
+  <si>
+    <t>Open: path or url</t>
+  </si>
+  <si>
+    <t>Close: process_name | dir_name</t>
+  </si>
+  <si>
+    <t>Blocked: process_name | dir_name</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>test 1</t>
+  </si>
+  <si>
+    <t>C:\Users\AI\Documents\Summary\1 Python Кольцов Полное руководство.pdf, C:\Windows\System32\notepad.exe</t>
+  </si>
+  <si>
+    <t>_ | тест</t>
+  </si>
+  <si>
+    <t>test 2</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Google\Chrome\Application\chrome.exe</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <b val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="SimSun"/>
       <charset val="134"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -514,169 +615,169 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -730,104 +831,12 @@
     <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>AI</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <t>AI:
-Через запятую с пробелами, в одинарных кавычках URL или локальные адреса для открытия. Порядок не важен, можно хоть в перемешку</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <t>AI:
-process_name | dir_name
-имя процессов в одинарных кавычках, через запятую с пробелами, также как и имена директорий для закрытия. При этом два типа отделяются друг от друга вертикальной черотй</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <t>AI:
-аналогично close</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1086,109 +1095,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col width="10.4444444444444" customWidth="1" min="1" max="1"/>
-    <col width="47.2222222222222" customWidth="1" style="2" min="2" max="2"/>
-    <col width="52.5555555555556" customWidth="1" style="3" min="3" max="5"/>
-    <col width="9" customWidth="1" style="3" min="6" max="6"/>
+    <col min="1" max="1" width="10.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="47.2222222222222" style="2" customWidth="1"/>
+    <col min="3" max="5" width="52.5555555555556" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>WB Group</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>Work block Title</t>
-        </is>
-      </c>
-      <c r="C1" s="6" t="inlineStr">
-        <is>
-          <t>Open: path or url</t>
-        </is>
-      </c>
-      <c r="D1" s="7" t="inlineStr">
-        <is>
-          <t>Close: process_name | dir_name</t>
-        </is>
-      </c>
-      <c r="E1" s="7" t="inlineStr">
-        <is>
-          <t>Blocked: process_name | dir_name</t>
-        </is>
-      </c>
-      <c r="F1" s="8" t="n"/>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8"/>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>test 1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>C:\Users\AI\Documents\Summary\1 Python Кольцов Полное руководство.pdf, C:\Windows\System32\notepad.exe</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>C:\Program Files\Google\Chrome\Application\chrome.exe | тест</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>chrome.exe | тест</t>
-        </is>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>test 2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>C:\Program Files\Google\Chrome\Application\chrome.exe</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>C:\Windows\System32\notepad.exe | тест</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>notepad.exe | тест</t>
-        </is>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="anysvml"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/resources/settings/work_blocks.xlsx
+++ b/resources/settings/work_blocks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22920" windowHeight="7667"/>
+    <workbookView windowWidth="23040" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="one" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>WB Group</t>
   </si>
@@ -95,6 +95,21 @@
   </si>
   <si>
     <t>0.0</t>
+  </si>
+  <si>
+    <t>start day</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>_ | _</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>plan day</t>
   </si>
   <si>
     <t>test 1</t>
@@ -1097,13 +1112,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="47.2222222222222" style="2" customWidth="1"/>
@@ -1133,16 +1148,16 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1150,17 +1165,68 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/resources/settings/work_blocks.xlsx
+++ b/resources/settings/work_blocks.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>WB Group</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>Blocked: process_name | dir_name</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>duration</t>
   </si>
   <si>
     <t>0.0</t>
@@ -775,7 +781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -792,7 +798,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1112,21 +1117,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="47.2222222222222" style="2" customWidth="1"/>
-    <col min="3" max="5" width="52.5555555555556" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3" customWidth="1"/>
+    <col min="2" max="2" width="42.1111111111111" style="2" customWidth="1"/>
+    <col min="3" max="5" width="42.1111111111111" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1142,91 +1149,97 @@
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8"/>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/resources/settings/work_blocks.xlsx
+++ b/resources/settings/work_blocks.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>WB Group</t>
   </si>
@@ -94,10 +94,7 @@
     <t>Blocked: process_name | dir_name</t>
   </si>
   <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>duration</t>
+    <t>settings</t>
   </si>
   <si>
     <t>0.0</t>
@@ -1117,23 +1114,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="42.1111111111111" style="2" customWidth="1"/>
     <col min="3" max="5" width="42.1111111111111" style="3" customWidth="1"/>
     <col min="6" max="6" width="19" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1152,94 +1148,91 @@
       <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/resources/settings/work_blocks.xlsx
+++ b/resources/settings/work_blocks.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>WB Group</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>C:\Program Files\Google\Chrome\Application\chrome.exe</t>
+  </si>
+  <si>
+    <t>only schedule mod</t>
   </si>
 </sst>
 </file>
@@ -1114,13 +1117,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="42.1111111111111" style="2" customWidth="1"/>
@@ -1235,6 +1238,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/resources/settings/work_blocks.xlsx
+++ b/resources/settings/work_blocks.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>WB Group</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>C:\Program Files\Google\Chrome\Application\chrome.exe</t>
+  </si>
+  <si>
+    <t>shift : fix-right | duraton : low-fix</t>
   </si>
   <si>
     <t>only schedule mod</t>
@@ -1120,7 +1123,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1153,7 +1156,7 @@
       </c>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1169,8 +1172,11 @@
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1186,8 +1192,11 @@
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1203,8 +1212,11 @@
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1220,8 +1232,11 @@
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1237,10 +1252,13 @@
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:6">
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -1249,6 +1267,9 @@
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/resources/settings/work_blocks.xlsx
+++ b/resources/settings/work_blocks.xlsx
@@ -130,7 +130,7 @@
     <t>C:\Program Files\Google\Chrome\Application\chrome.exe</t>
   </si>
   <si>
-    <t>shift : fix-right | duraton : low-fix</t>
+    <t>shift : fix-right | duration : low-fix</t>
   </si>
   <si>
     <t>only schedule mod</t>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="6"/>

--- a/resources/settings/work_blocks.xlsx
+++ b/resources/settings/work_blocks.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>WB Group</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>only schedule mod</t>
+  </si>
+  <si>
+    <t>development orgApp</t>
   </si>
 </sst>
 </file>
@@ -1120,13 +1123,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="42.1111111111111" style="2" customWidth="1"/>
@@ -1273,6 +1276,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
